--- a/genshin/447745190947276385_2020-10-19_14-00-01.xlsx
+++ b/genshin/447745190947276385_2020-10-19_14-00-01.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:11:50</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.09155092593</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-10-21 12:35:51</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44125.52489583333</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>3615914928</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-10-20 23:07:59</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44124.96387731482</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -772,10 +782,8 @@
           <t>3620378655</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-10-20 21:55:31</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44124.91355324074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>3616207915</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-10-20 20:26:19</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44124.8516087963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -910,10 +916,8 @@
           <t>3615914928</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-10-20 20:25:41</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44124.85116898148</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -982,10 +986,8 @@
           <t>3616207915</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-10-20 20:17:14</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44124.84530092592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1045,10 +1047,8 @@
           <t>3616152185</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-10-20 15:43:30</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44124.65520833333</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1120,10 +1120,8 @@
           <t>3619105251</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-10-20 14:44:31</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44124.61424768518</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1187,10 +1185,8 @@
           <t>3618851344</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-10-20 12:55:42</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44124.53868055555</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1254,10 +1250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-10-20 10:43:01</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44124.44653935185</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1333,10 +1327,8 @@
           <t>3618458113</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-10-20 10:17:06</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44124.42854166667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1412,10 +1404,8 @@
           <t>3618443623</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-10-20 10:09:30</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44124.42326388889</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1479,10 +1469,8 @@
           <t>3616281184</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-10-20 06:47:54</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44124.28326388889</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1554,10 +1542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-10-20 04:14:52</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44124.17699074074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1633,10 +1619,8 @@
           <t>3615914928</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-10-20 03:37:22</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44124.15094907407</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1708,10 +1692,8 @@
           <t>3616192679</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-10-20 02:30:35</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44124.10457175926</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1775,10 +1757,8 @@
           <t>3618034107</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-10-20 02:25:56</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44124.10134259259</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1842,10 +1822,8 @@
           <t>3617975904</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-10-20 01:24:36</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44124.05875</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1921,10 +1899,8 @@
           <t>3617954341</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-10-20 01:14:45</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44124.05190972222</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1992,10 +1968,8 @@
           <t>3617956324</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-10-20 01:14:41</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44124.05186342593</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2067,10 +2041,8 @@
           <t>3617938313</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-10-20 01:05:20</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44124.04537037037</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2148,10 +2120,8 @@
           <t>3616192679</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-10-20 00:49:20</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44124.03425925926</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2215,10 +2185,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-10-20 00:43:52</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44124.03046296296</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2283,10 +2251,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-10-20 00:32:34</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44124.02261574074</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2354,10 +2320,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-10-20 00:26:20</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44124.01828703703</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2425,10 +2389,8 @@
           <t>3617848692</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-10-20 00:26:00</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44124.01805555556</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2504,10 +2466,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-10-20 00:21:04</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44124.01462962963</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2575,10 +2535,8 @@
           <t>3616192679</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-10-20 00:06:12</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44124.00430555556</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2646,10 +2604,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-10-19 23:57:39</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44123.99836805555</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2717,10 +2673,8 @@
           <t>3617763015</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-10-19 23:57:19</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44123.99813657408</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2785,10 +2739,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-10-19 23:34:22</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44123.98219907407</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2856,10 +2808,8 @@
           <t>3617676857</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-10-19 23:32:45</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44123.98107638889</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2923,10 +2873,8 @@
           <t>3617653928</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-10-19 23:27:18</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44123.97729166667</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2994,10 +2942,8 @@
           <t>3616207915</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-10-19 23:25:57</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44123.97635416667</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3065,10 +3011,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-10-19 23:18:54</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44123.97145833333</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3136,10 +3080,8 @@
           <t>3616192679</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-10-19 23:15:05</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44123.96880787037</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3203,10 +3145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-10-19 23:03:13</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44123.96056712963</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3274,10 +3214,8 @@
           <t>3617484830</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:45:54</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44123.94854166666</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3345,10 +3283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:44:31</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44123.94758101852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3412,10 +3348,8 @@
           <t>3616192679</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:38:23</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44123.94332175926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3483,10 +3417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:36:53</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44123.94228009259</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3550,10 +3482,8 @@
           <t>3617438732</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:33:47</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44123.94012731482</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3625,10 +3555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:32:15</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44123.9390625</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3692,10 +3620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:25:02</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44123.93405092593</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3767,10 +3693,8 @@
           <t>3616192679</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:14:58</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44123.92706018518</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3834,10 +3758,8 @@
           <t>3617333381</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:07:45</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44123.92204861111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3913,10 +3835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:07:17</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44123.92172453704</v>
       </c>
       <c r="I49" t="n">
         <v>3</v>
@@ -3986,10 +3906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:02:52</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44123.9186574074</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4057,10 +3975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-10-19 22:00:25</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44123.91695601852</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4120,10 +4036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:59:22</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44123.91622685185</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4187,10 +4101,8 @@
           <t>3617283300</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:56:10</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44123.91400462963</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4258,10 +4170,8 @@
           <t>3615914928</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:48:28</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44123.90865740741</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4329,10 +4239,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:46:52</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44123.90754629629</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4396,10 +4304,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:43:08</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44123.90495370371</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4463,10 +4369,8 @@
           <t>3617216059</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:37:29</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44123.90103009259</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4545,10 +4449,8 @@
           <t>3616180805</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:37:00</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44123.90069444444</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4620,10 +4522,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:35:22</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44123.89956018519</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4695,10 +4595,8 @@
           <t>3616180805</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:34:21</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44123.89885416667</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4770,10 +4668,8 @@
           <t>3617201924</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:34:09</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44123.89871527778</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4833,10 +4729,8 @@
           <t>3617199172</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:34:06</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44123.89868055555</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4904,10 +4798,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:11:29</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44123.88297453704</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4979,10 +4871,8 @@
           <t>3616895598</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:05:23</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44123.87873842593</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5058,10 +4948,8 @@
           <t>3617101048</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-10-19 21:04:44</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44123.87828703703</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5133,10 +5021,8 @@
           <t>3616895598</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:59:38</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44123.87474537037</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5204,10 +5090,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:57:01</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44123.87292824074</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5279,10 +5163,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:50:29</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44123.8683912037</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5354,10 +5236,8 @@
           <t>3616883577</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:48:09</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44123.86677083333</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5429,10 +5309,8 @@
           <t>3616895598</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:47:15</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44123.86614583333</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5510,10 +5388,8 @@
           <t>3616180805</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:44:02</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44123.86391203704</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5589,10 +5465,8 @@
           <t>3616165646</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:43:13</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44123.8633449074</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5660,10 +5534,8 @@
           <t>3616883577</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:35:44</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44123.85814814815</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5739,10 +5611,8 @@
           <t>3616895598</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:35:14</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44123.85780092593</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5810,10 +5680,8 @@
           <t>3616180805</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:35:02</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44123.85766203704</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5885,10 +5753,8 @@
           <t>3616895598</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:33:13</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44123.85640046297</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5956,10 +5822,8 @@
           <t>3616883577</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:32:45</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44123.85607638889</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6031,10 +5895,8 @@
           <t>3616980413</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:29:56</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44123.85412037037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6106,10 +5968,8 @@
           <t>3616964184</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:28:18</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44123.85298611111</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6186,10 +6046,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:27:08</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44123.85217592592</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -6253,10 +6111,8 @@
           <t>3616950606</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:21:21</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44123.84815972222</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6324,10 +6180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:15:26</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44123.84405092592</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6399,10 +6253,8 @@
           <t>3616895598</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:06:37</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44123.83792824074</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6479,10 +6331,8 @@
           <t>3616883577</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:04:53</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44123.83672453704</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6558,10 +6408,8 @@
           <t>3616883000</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:04:21</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44123.83635416667</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6633,10 +6481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:00:49</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44123.83390046296</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6704,10 +6550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-10-19 20:00:08</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44123.83342592593</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6775,10 +6619,8 @@
           <t>3616871813</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:59:19</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44123.8328587963</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6846,10 +6688,8 @@
           <t>3615944008</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:52:38</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44123.82821759259</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6909,10 +6749,8 @@
           <t>3616832339</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:47:32</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44123.82467592593</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6980,10 +6818,8 @@
           <t>3616207915</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:45:29</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44123.82325231482</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7051,10 +6887,8 @@
           <t>3616207915</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:44:22</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44123.82247685185</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7122,10 +6956,8 @@
           <t>3616814435</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:43:54</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44123.82215277778</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7197,10 +7029,8 @@
           <t>3616377549</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:42:39</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44123.82128472222</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7268,10 +7098,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:35:10</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44123.81608796296</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7343,10 +7171,8 @@
           <t>3616180805</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:34:52</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44123.81587962963</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7418,10 +7244,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:31:55</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44123.81383101852</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7493,10 +7317,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:31:38</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44123.81363425926</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7568,10 +7390,8 @@
           <t>3616180805</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:31:25</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44123.81348379629</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7643,10 +7463,8 @@
           <t>3616180805</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:29:02</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44123.81182870371</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7718,10 +7536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:27:48</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44123.81097222222</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7793,10 +7609,8 @@
           <t>3616180628</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:19:58</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44123.80553240741</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7868,10 +7682,8 @@
           <t>3616723666</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:17:35</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44123.80387731481</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7943,10 +7755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:15:17</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44123.80228009259</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8010,10 +7820,8 @@
           <t>3615914928</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:14:47</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44123.80193287037</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8085,10 +7893,8 @@
           <t>3616105645</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:14:28</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44123.80171296297</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8156,10 +7962,8 @@
           <t>3616231537</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:14:22</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44123.80164351852</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8235,10 +8039,8 @@
           <t>3615924526</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:10:49</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44123.79917824074</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8310,10 +8112,8 @@
           <t>3616699509</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:10:36</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44123.79902777778</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8385,10 +8185,8 @@
           <t>3616700343</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:09:29</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44123.79825231482</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8456,10 +8254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:09:06</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44123.79798611111</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8519,10 +8315,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:08:41</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44123.79769675926</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8594,10 +8388,8 @@
           <t>3616679155</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:05:32</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44123.79550925926</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8665,10 +8457,8 @@
           <t>3616673862</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:03:59</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44123.79443287037</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8740,10 +8530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:03:34</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44123.79414351852</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8807,10 +8595,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:03:14</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44123.79391203704</v>
       </c>
       <c r="I116" t="n">
         <v>4</v>
@@ -8878,10 +8664,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:03:12</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44123.79388888889</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8953,10 +8737,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-10-19 19:02:07</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44123.79313657407</v>
       </c>
       <c r="I118" t="n">
         <v>2</v>
@@ -9028,10 +8810,8 @@
           <t>3616659069</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:59:59</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44123.79165509259</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9107,10 +8887,8 @@
           <t>3616110500</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:51:24</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44123.78569444444</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9178,10 +8956,8 @@
           <t>3616631538</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:51:02</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44123.78543981481</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9249,10 +9025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:50:17</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44123.78491898148</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9320,10 +9094,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:50:15</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44123.78489583333</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9392,10 +9164,8 @@
           <t>3616624568</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:49:52</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44123.78462962963</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9471,10 +9241,8 @@
           <t>3616626184</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:49:01</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44123.78403935185</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9543,10 +9311,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:45:04</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44123.7812962963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9610,10 +9376,8 @@
           <t>3616611564</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:45:02</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44123.78127314815</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9682,10 +9446,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:44:31</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44123.78091435185</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -9757,10 +9519,8 @@
           <t>3616377549</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:42:19</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44123.77938657408</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9828,10 +9588,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:40:55</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44123.77841435185</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9903,10 +9661,8 @@
           <t>3616572694</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:38:49</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44123.77695601852</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9974,10 +9730,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:38:00</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44123.77638888889</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10049,10 +9803,8 @@
           <t>3616207915</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:37:09</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44123.77579861111</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10120,10 +9872,8 @@
           <t>3616579215</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:36:56</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44123.77564814815</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10191,10 +9941,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:36:13</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44123.77515046296</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10266,10 +10014,8 @@
           <t>3616578137</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:36:03</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44123.77503472222</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10345,10 +10091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:35:53</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44123.77491898148</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10425,10 +10169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:35:47</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44123.77484953704</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10499,10 +10241,8 @@
           <t>3616572719</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:35:32</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44123.77467592592</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10570,10 +10310,8 @@
           <t>3616572694</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:35:31</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44123.77466435185</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10645,10 +10383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:35:28</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44123.77462962963</v>
       </c>
       <c r="I141" t="n">
         <v>5</v>
@@ -10719,10 +10455,8 @@
           <t>3616576362</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:34:38</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44123.77405092592</v>
       </c>
       <c r="I142" t="n">
         <v>4</v>
@@ -10794,10 +10528,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:33:58</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44123.77358796296</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10869,10 +10601,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:33:40</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44123.77337962963</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10948,10 +10678,8 @@
           <t>3616570327</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:33:33</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44123.77329861111</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11019,10 +10747,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:33:18</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44123.773125</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11094,10 +10820,8 @@
           <t>3616567482</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:32:56</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44123.77287037037</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11165,10 +10889,8 @@
           <t>3616552830</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:32:40</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44123.77268518518</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11232,10 +10954,8 @@
           <t>3615944008</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:32:08</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44123.77231481481</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11307,10 +11027,8 @@
           <t>3616557378</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:31:10</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44123.77164351852</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11386,10 +11104,8 @@
           <t>3616557034</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:30:53</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44123.77144675926</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11457,10 +11173,8 @@
           <t>3616552830</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:29:57</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44123.77079861111</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11528,10 +11242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:29:49</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44123.77070601852</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11607,10 +11319,8 @@
           <t>3616553363</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:29:33</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44123.77052083334</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11682,10 +11392,8 @@
           <t>3616552830</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:29:05</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44123.77019675926</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11749,10 +11457,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:28:58</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44123.77011574074</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11824,10 +11530,8 @@
           <t>3616548589</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:28:19</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44123.76966435185</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11895,10 +11599,8 @@
           <t>3616231537</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:26:12</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44123.76819444444</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11962,10 +11664,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:25:39</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44123.7678125</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12041,10 +11741,8 @@
           <t>3616537471</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:24:18</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44123.766875</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12108,10 +11806,8 @@
           <t>3616192679</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:24:17</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44123.76686342592</v>
       </c>
       <c r="I161" t="n">
         <v>3</v>
@@ -12179,10 +11875,8 @@
           <t>3616536949</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:23:51</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44123.7665625</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12250,10 +11944,8 @@
           <t>3616207915</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:23:24</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44123.76625</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12321,10 +12013,8 @@
           <t>3616535782</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:22:47</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44123.76582175926</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12388,10 +12078,8 @@
           <t>3616525816</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:21:09</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44123.7646875</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12459,10 +12147,8 @@
           <t>3616514745</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:20:12</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44123.76402777778</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12530,10 +12216,8 @@
           <t>3616522675</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:20:01</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44123.76390046296</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12611,10 +12295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:19:53</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44123.76380787037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12686,10 +12368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:19:43</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44123.76369212963</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12757,10 +12437,8 @@
           <t>3616513860</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:19:27</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44123.76350694444</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12828,10 +12506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:17:36</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44123.76222222222</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12899,10 +12575,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:12:23</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44123.75859953704</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -12966,10 +12640,8 @@
           <t>3616484603</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:11:13</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44123.75778935185</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13037,10 +12709,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:11:04</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44123.75768518518</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13112,10 +12782,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:09:11</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44123.75637731481</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13187,10 +12855,8 @@
           <t>3616482094</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:08:55</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44123.75619212963</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13266,10 +12932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:08:50</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44123.75613425926</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13329,10 +12993,8 @@
           <t>3616107004</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:08:23</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44123.75582175926</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13408,10 +13070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:06:22</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44123.7544212963</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13471,10 +13131,8 @@
           <t>3616468729</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:05:54</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44123.75409722222</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13550,10 +13208,8 @@
           <t>3616459980</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:02:55</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44123.75202546296</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13625,10 +13281,8 @@
           <t>3616105645</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:01:53</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44123.75130787037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13704,10 +13358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:01:31</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44123.75105324074</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13775,10 +13427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-10-19 18:01:23</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44123.75096064815</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13854,10 +13504,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:59:01</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44123.74931712963</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13925,10 +13573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:56:55</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44123.7478587963</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14000,10 +13646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:56:53</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44123.74783564815</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14067,10 +13711,8 @@
           <t>3616437214</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:55:15</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44123.74670138889</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14142,10 +13784,8 @@
           <t>3616054328</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:55:03</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44123.7465625</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14221,10 +13861,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:54:34</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44123.74622685185</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14296,10 +13934,8 @@
           <t>3615969445</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:54:09</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44123.7459375</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14375,10 +14011,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:53:18</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44123.74534722222</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14454,10 +14088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:53:08</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44123.74523148148</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14517,10 +14149,8 @@
           <t>3616397918</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:52:59</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44123.74512731482</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14596,10 +14226,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:52:53</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44123.74505787037</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14671,10 +14299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:51:40</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44123.74421296296</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14738,10 +14364,8 @@
           <t>3616406391</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:44:57</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44123.73954861111</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14817,10 +14441,8 @@
           <t>3616410422</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:44:37</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44123.73931712963</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14888,10 +14510,8 @@
           <t>3616399533</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:43:43</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44123.73869212963</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14955,10 +14575,8 @@
           <t>3616394309</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:42:51</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44123.73809027778</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15034,10 +14652,8 @@
           <t>3616397918</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:42:07</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44123.73758101852</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15101,10 +14717,8 @@
           <t>3616377505</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:42:02</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44123.73752314815</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15176,10 +14790,8 @@
           <t>3616400384</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:40:23</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44123.73637731482</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15247,10 +14859,8 @@
           <t>3616377505</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:40:10</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44123.73622685186</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15326,10 +14936,8 @@
           <t>3616172954</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:38:31</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44123.73508101852</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15405,10 +15013,8 @@
           <t>3616383394</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:37:26</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44123.7343287037</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15476,10 +15082,8 @@
           <t>3616383244</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:37:17</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44123.73422453704</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15543,10 +15147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:36:45</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44123.73385416667</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15610,10 +15212,8 @@
           <t>3616377505</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:35:43</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44123.73313657408</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15677,10 +15277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:35:29</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44123.73297453704</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15753,10 +15351,8 @@
           <t>3616372246</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:31:46</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44123.73039351852</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15828,10 +15424,8 @@
           <t>3616367940</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:31:39</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44123.7303125</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15899,10 +15493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:31:29</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44123.73019675926</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15974,10 +15566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:30:49</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44123.7297337963</v>
       </c>
       <c r="I214" t="n">
         <v>14</v>
@@ -16045,10 +15635,8 @@
           <t>3616366514</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:30:11</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44123.72929398148</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -16120,10 +15708,8 @@
           <t>3616316652</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:29:08</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44123.72856481482</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16195,10 +15781,8 @@
           <t>3616354508</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:28:06</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44123.72784722222</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16270,10 +15854,8 @@
           <t>3616352877</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:26:26</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44123.72668981482</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16351,10 +15933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:26:22</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44123.72664351852</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16418,10 +15998,8 @@
           <t>3616347582</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:25:12</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44123.72583333333</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16485,10 +16063,8 @@
           <t>3616355256</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:24:17</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44123.72519675926</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16556,10 +16132,8 @@
           <t>3616350523</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:23:52</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44123.72490740741</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16635,10 +16209,8 @@
           <t>3615981662</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:23:03</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44123.72434027777</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16710,10 +16282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:22:49</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44123.72417824074</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16781,10 +16351,8 @@
           <t>3616337917</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:21:01</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44123.72292824074</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16852,10 +16420,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:20:42</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44123.72270833333</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16919,10 +16485,8 @@
           <t>3616341494</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:20:12</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44123.72236111111</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -16995,10 +16559,8 @@
           <t>3616185538</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:19:06</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44123.72159722223</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17074,10 +16636,8 @@
           <t>3616331904</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:18:56</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44123.72148148148</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17149,10 +16709,8 @@
           <t>3616183186</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:18:49</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44123.72140046296</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17228,10 +16786,8 @@
           <t>3616329766</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:18:16</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44123.72101851852</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17299,10 +16855,8 @@
           <t>3616324860</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:17:40</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44123.72060185186</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17381,10 +16935,8 @@
           <t>3616330174</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:17:00</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44123.72013888889</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17460,10 +17012,8 @@
           <t>3616326962</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:15:10</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44123.71886574074</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17527,10 +17077,8 @@
           <t>3616316652</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:12:59</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44123.71734953704</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17602,10 +17150,8 @@
           <t>3615929841</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:12:40</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44123.71712962963</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17675,10 +17221,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:11:56</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44123.71662037037</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17750,10 +17294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:09:51</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44123.71517361111</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17817,10 +17359,8 @@
           <t>3616180805</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:09:16</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44123.71476851852</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17888,10 +17428,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:08:19</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44123.7141087963</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17955,10 +17493,8 @@
           <t>3616302165</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:07:32</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44123.71356481482</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18022,10 +17558,8 @@
           <t>3616299778</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:07:04</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44123.71324074074</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18093,10 +17627,8 @@
           <t>3616207915</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:06:10</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44123.71261574074</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18164,10 +17696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:06:09</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44123.71260416666</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18243,10 +17773,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:06:06</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44123.71256944445</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
@@ -18310,10 +17838,8 @@
           <t>3616294868</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:05:55</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44123.71244212963</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18389,10 +17915,8 @@
           <t>3616281184</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:05:04</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44123.71185185185</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18460,10 +17984,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:03:57</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44123.71107638889</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18531,10 +18053,8 @@
           <t>3616214414</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:02:41</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44123.71019675926</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18602,10 +18122,8 @@
           <t>3616254053</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-10-19 17:00:50</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44123.70891203704</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18677,10 +18195,8 @@
           <t>3616285782</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:59:37</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44123.70806712963</v>
       </c>
       <c r="I251" t="n">
         <v>4</v>
@@ -18752,10 +18268,8 @@
           <t>3616285055</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:58:43</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44123.70744212963</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18819,10 +18333,8 @@
           <t>3616278692</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:58:25</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44123.7072337963</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18890,10 +18402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:57:41</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44123.70672453703</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18965,10 +18475,8 @@
           <t>3616281184</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:56:37</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44123.7059837963</v>
       </c>
       <c r="I255" t="n">
         <v>6</v>
@@ -19036,10 +18544,8 @@
           <t>3616276621</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:55:57</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44123.70552083333</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19111,10 +18617,8 @@
           <t>3616231537</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:55:10</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44123.70497685186</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19190,10 +18694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:53:22</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44123.70372685185</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19259,10 +18761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:53:05</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44123.70353009259</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19330,10 +18830,8 @@
           <t>3616263487</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:52:09</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44123.70288194445</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19397,10 +18895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:51:56</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44123.70273148148</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19468,10 +18964,8 @@
           <t>3616262970</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:51:31</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44123.70244212963</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19539,10 +19033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:48:45</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44123.70052083334</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19610,10 +19102,8 @@
           <t>3616254053</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:47:37</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44123.6997337963</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19685,10 +19175,8 @@
           <t>3616020229</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:47:26</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44123.69960648148</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19764,10 +19252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:46:45</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44123.69913194444</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19839,10 +19325,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:46:16</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44123.6987962963</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19906,10 +19390,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:45:55</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44123.69855324074</v>
       </c>
       <c r="I268" t="n">
         <v>8</v>
@@ -19973,10 +19455,8 @@
           <t>3616244220</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:45:22</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44123.6981712963</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20048,10 +19528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:45:16</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44123.69810185185</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20123,10 +19601,8 @@
           <t>3616247063</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:44:09</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44123.69732638889</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20198,10 +19674,8 @@
           <t>3616243069</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:43:49</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44123.69709490741</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20277,10 +19751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:43:34</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44123.69692129629</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20356,10 +19828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:43:07</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44123.69660879629</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20431,10 +19901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:42:22</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44123.69608796296</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20510,10 +19978,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:40:57</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44123.69510416667</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20589,10 +20055,8 @@
           <t>3616233997</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:40:17</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44123.69464120371</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20660,10 +20124,8 @@
           <t>3616229807</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:39:28</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44123.69407407408</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20731,10 +20193,8 @@
           <t>3616232511</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:38:25</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44123.69334490741</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20802,10 +20262,8 @@
           <t>3616231537</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:37:08</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44123.6924537037</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20881,10 +20339,8 @@
           <t>3616231086</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:36:33</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44123.69204861111</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -20952,10 +20408,8 @@
           <t>3616197110</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:36:29</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44123.69200231481</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21019,10 +20473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:36:27</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44123.69197916667</v>
       </c>
       <c r="I283" t="n">
         <v>1</v>
@@ -21095,10 +20547,8 @@
           <t>3616223979</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:34:41</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44123.69075231482</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21174,10 +20624,8 @@
           <t>3616218821</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:33:37</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44123.69001157407</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21245,10 +20693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:33:36</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44123.69</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21320,10 +20766,8 @@
           <t>3616221252</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:33:29</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44123.68991898148</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21391,10 +20835,8 @@
           <t>3616217669</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:32:10</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44123.68900462963</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21466,10 +20908,8 @@
           <t>3616214414</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:32:08</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44123.68898148148</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21541,10 +20981,8 @@
           <t>3616214367</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:32:05</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44123.68894675926</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21613,10 +21051,8 @@
           <t>3616217110</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:31:26</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44123.68849537037</v>
       </c>
       <c r="I291" t="n">
         <v>9</v>
@@ -21688,10 +21124,8 @@
           <t>3616221252</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:31:13</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44123.68834490741</v>
       </c>
       <c r="I292" t="n">
         <v>3</v>
@@ -21763,10 +21197,8 @@
           <t>3616211595</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:28:26</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44123.68641203704</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21842,10 +21274,8 @@
           <t>3616208965</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:28:06</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44123.68618055555</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21921,10 +21351,8 @@
           <t>3616207915</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:26:44</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44123.68523148148</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21992,10 +21420,8 @@
           <t>3616207841</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:26:36</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44123.68513888889</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -22067,10 +21493,8 @@
           <t>3616210184</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:26:29</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44123.68505787037</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22138,10 +21562,8 @@
           <t>3616199859</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:26:03</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44123.68475694444</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22213,10 +21635,8 @@
           <t>3616190795</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:25:48</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44123.68458333334</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22293,10 +21713,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:25:31</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44123.68438657407</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22368,10 +21786,8 @@
           <t>3616207002</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:25:29</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44123.68436342593</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22435,10 +21851,8 @@
           <t>3616192679</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:25:04</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44123.68407407407</v>
       </c>
       <c r="I302" t="n">
         <v>33</v>
@@ -22510,10 +21924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:24:40</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44123.6837962963</v>
       </c>
       <c r="I303" t="n">
         <v>19</v>
@@ -22581,10 +21993,8 @@
           <t>3616205683</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:23:46</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44123.6831712963</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22656,10 +22066,8 @@
           <t>3616198027</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:23:34</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44123.68303240741</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22727,10 +22135,8 @@
           <t>3616201112</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:23:27</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44123.68295138889</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22798,10 +22204,8 @@
           <t>3616197774</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:23:15</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44123.6828125</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22873,10 +22277,8 @@
           <t>3616205189</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:23:06</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44123.68270833333</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22948,10 +22350,8 @@
           <t>3616200727</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:22:55</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44123.68258101852</v>
       </c>
       <c r="I309" t="n">
         <v>3</v>
@@ -23019,10 +22419,8 @@
           <t>3616180805</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:22:35</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44123.68234953703</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23094,10 +22492,8 @@
           <t>3616197110</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:22:21</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44123.6821875</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23167,10 +22563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:21:57</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44123.68190972223</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23234,10 +22628,8 @@
           <t>3616194016</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:21:34</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44123.68164351852</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23305,10 +22697,8 @@
           <t>3616193021</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:20:13</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44123.68070601852</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23368,10 +22758,8 @@
           <t>3616188522</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:20:01</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44123.68056712963</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23439,10 +22827,8 @@
           <t>3616192679</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:19:46</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44123.68039351852</v>
       </c>
       <c r="I316" t="n">
         <v>9</v>
@@ -23510,10 +22896,8 @@
           <t>3616195179</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:19:37</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44123.68028935185</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23585,10 +22969,8 @@
           <t>3616187652</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:18:51</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44123.67975694445</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23656,10 +23038,8 @@
           <t>3616020229</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:18:40</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44123.67962962963</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23731,10 +23111,8 @@
           <t>3616187171</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:18:14</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44123.67932870371</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23806,10 +23184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:18:10</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44123.67928240741</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23873,10 +23249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:18:08</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44123.67925925926</v>
       </c>
       <c r="I322" t="n">
         <v>4</v>
@@ -23944,10 +23318,8 @@
           <t>3616152185</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:18:02</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44123.67918981481</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24023,10 +23395,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:17:30</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44123.67881944445</v>
       </c>
       <c r="I324" t="n">
         <v>4</v>
@@ -24090,10 +23460,8 @@
           <t>3616190795</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:17:14</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44123.67863425926</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24165,10 +23533,8 @@
           <t>3616183186</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:16:43</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44123.67827546296</v>
       </c>
       <c r="I326" t="n">
         <v>8</v>
@@ -24240,10 +23606,8 @@
           <t>3616179981</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:16:09</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44123.67788194444</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24319,10 +23683,8 @@
           <t>3616107004</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:16:01</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44123.67778935185</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24386,10 +23748,8 @@
           <t>3616185538</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:15:59</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44123.67776620371</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24465,10 +23825,8 @@
           <t>3616185111</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:15:25</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44123.67737268518</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24532,10 +23890,8 @@
           <t>3616107004</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:14:28</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44123.67671296297</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24599,10 +23955,8 @@
           <t>3616180923</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:13:28</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44123.67601851852</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24674,10 +24028,8 @@
           <t>3616180805</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:13:16</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44123.67587962963</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24745,10 +24097,8 @@
           <t>3616180628</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:13:00</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44123.67569444444</v>
       </c>
       <c r="I334" t="n">
         <v>9</v>
@@ -24824,10 +24174,8 @@
           <t>3616172954</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:12:32</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44123.67537037037</v>
       </c>
       <c r="I335" t="n">
         <v>3</v>
@@ -24903,10 +24251,8 @@
           <t>3616180115</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:12:15</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44123.67517361111</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24978,10 +24324,8 @@
           <t>3616176861</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:11:51</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44123.67489583333</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25049,10 +24393,8 @@
           <t>3616169835</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:11:49</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44123.67487268519</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25128,10 +24470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:11:48</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44123.67486111111</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25199,10 +24539,8 @@
           <t>3615923142</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:11:00</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44123.67430555556</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25270,10 +24608,8 @@
           <t>3616107004</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:10:42</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44123.67409722223</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25349,10 +24685,8 @@
           <t>3616170829</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:09:38</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44123.67335648148</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25428,10 +24762,8 @@
           <t>3616170154</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:08:42</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44123.67270833333</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25503,10 +24835,8 @@
           <t>3616159760</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:08:09</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44123.67232638889</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25574,10 +24904,8 @@
           <t>3616167251</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:08:06</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44123.67229166667</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25641,10 +24969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:07:30</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44123.671875</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25716,10 +25042,8 @@
           <t>3616158548</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:06:29</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44123.67116898148</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25791,10 +25115,8 @@
           <t>3616165646</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:05:45</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44123.67065972222</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -25862,10 +25184,8 @@
           <t>3616161285</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:04:26</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44123.66974537037</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25937,10 +25257,8 @@
           <t>3616153674</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:02:52</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44123.6686574074</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26018,10 +25336,8 @@
           <t>3616148984</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:01:12</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44123.6675</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26089,10 +25405,8 @@
           <t>3616144328</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:00:49</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44123.6672337963</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26160,10 +25474,8 @@
           <t>3616152185</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:00:46</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44123.66719907407</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26236,10 +25548,8 @@
           <t>3616152178</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-10-19 16:00:45</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44123.6671875</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26315,10 +25625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:59:28</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44123.66629629629</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26387,10 +25695,8 @@
           <t>3616139718</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:57:17</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44123.66478009259</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26462,10 +25768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:56:06</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44123.66395833333</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26537,10 +25841,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:54:17</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44123.66269675926</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26612,10 +25914,8 @@
           <t>3616128846</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:53:23</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44123.66207175926</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26683,10 +25983,8 @@
           <t>3616136736</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:52:59</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44123.66179398148</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26762,10 +26060,8 @@
           <t>3616136072</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:52:01</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44123.66112268518</v>
       </c>
       <c r="I361" t="n">
         <v>3</v>
@@ -26837,10 +26133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:51:35</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44123.66082175926</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26904,10 +26198,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:50:45</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44123.66024305556</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26979,10 +26271,8 @@
           <t>3616124827</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:50:14</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44123.65988425926</v>
       </c>
       <c r="I364" t="n">
         <v>3</v>
@@ -27054,10 +26344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:50:01</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44123.6597337963</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27127,10 +26415,8 @@
           <t>3616041096</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:49:14</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44123.65918981482</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27206,10 +26492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:49:12</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44123.65916666666</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27278,10 +26562,8 @@
           <t>3616124071</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:49:10</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44123.65914351852</v>
       </c>
       <c r="I368" t="n">
         <v>5</v>
@@ -27345,10 +26627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:48:23</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44123.65859953704</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27412,10 +26692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:47:00</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44123.65763888889</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27483,10 +26761,8 @@
           <t>3616121660</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:45:46</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44123.65678240741</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27555,10 +26831,8 @@
           <t>3616117386</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:44:48</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44123.65611111111</v>
       </c>
       <c r="I372" t="n">
         <v>2</v>
@@ -27635,10 +26909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:44:23</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44123.65582175926</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27714,10 +26986,8 @@
           <t>3615958712</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:43:48</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44123.65541666667</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27781,10 +27051,8 @@
           <t>3616116527</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:43:33</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44123.65524305555</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27860,10 +27128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:43:22</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44123.65511574074</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27932,10 +27198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:42:59</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44123.65484953704</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28007,10 +27271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:42:04</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44123.65421296296</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28082,10 +27344,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:41:50</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44123.65405092593</v>
       </c>
       <c r="I379" t="n">
         <v>4</v>
@@ -28157,10 +27417,8 @@
           <t>3616115286</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:41:47</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44123.65401620371</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28224,10 +27482,8 @@
           <t>3616110500</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:41:35</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44123.65387731481</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28295,10 +27551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:41:08</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44123.65356481481</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28366,10 +27620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:40:47</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44123.65332175926</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28441,10 +27693,8 @@
           <t>3616089182</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:40:38</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44123.65321759259</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28516,10 +27766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:40:21</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44123.65302083334</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28595,10 +27843,8 @@
           <t>3616107845</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:40:08</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44123.65287037037</v>
       </c>
       <c r="I386" t="n">
         <v>8</v>
@@ -28670,10 +27916,8 @@
           <t>3616105645</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:39:57</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44123.65274305556</v>
       </c>
       <c r="I387" t="n">
         <v>4</v>
@@ -28741,10 +27985,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:39:48</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44123.65263888889</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28816,10 +28058,8 @@
           <t>3616099042</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:39:33</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44123.65246527778</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28883,10 +28123,8 @@
           <t>3615958712</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:39:31</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44123.65244212963</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28958,10 +28196,8 @@
           <t>3615973502</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:39:30</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44123.65243055556</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29037,10 +28273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:39:26</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44123.65238425926</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29108,10 +28342,8 @@
           <t>3616103166</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:38:48</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44123.65194444444</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29175,10 +28407,8 @@
           <t>3616106951</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:38:46</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44123.6519212963</v>
       </c>
       <c r="I394" t="n">
         <v>3</v>
@@ -29246,10 +28476,8 @@
           <t>3616098310</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:38:31</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44123.65174768519</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29321,10 +28549,8 @@
           <t>3615931742</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:38:14</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44123.65155092593</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29396,10 +28622,8 @@
           <t>3616071764</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:37:29</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44123.65103009259</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29471,10 +28695,8 @@
           <t>3616011006</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:37:25</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44123.65098379629</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29538,10 +28760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:37:20</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44123.65092592593</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29609,10 +28829,8 @@
           <t>3616101913</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:36:56</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44123.65064814815</v>
       </c>
       <c r="I400" t="n">
         <v>3</v>
@@ -29680,10 +28898,8 @@
           <t>3616105645</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:36:55</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44123.65063657407</v>
       </c>
       <c r="I401" t="n">
         <v>3</v>
@@ -29751,10 +28967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:36:50</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44123.6505787037</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29826,10 +29040,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:36:49</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44123.65056712963</v>
       </c>
       <c r="I403" t="n">
         <v>53</v>
@@ -29893,10 +29105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:36:42</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44123.65048611111</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29968,10 +29178,8 @@
           <t>3615923142</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:36:34</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44123.65039351852</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30039,10 +29247,8 @@
           <t>3616096551</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:35:56</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44123.6499537037</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30110,10 +29316,8 @@
           <t>3616011006</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:35:33</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44123.6496875</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30177,10 +29381,8 @@
           <t>3616100708</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:35:12</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44123.64944444445</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30252,10 +29454,8 @@
           <t>3616089954</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:34:06</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44123.64868055555</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30333,10 +29533,8 @@
           <t>3616093762</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:34:05</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44123.64866898148</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30412,10 +29610,8 @@
           <t>3616084768</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:33:26</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44123.64821759259</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30479,10 +29675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:33:00</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44123.64791666667</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30554,10 +29748,8 @@
           <t>3616089182</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:32:58</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44123.64789351852</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30633,10 +29825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:32:39</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44123.64767361111</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30712,10 +29902,8 @@
           <t>3616092533</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:32:16</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44123.64740740741</v>
       </c>
       <c r="I415" t="n">
         <v>6</v>
@@ -30791,10 +29979,8 @@
           <t>3616088595</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:32:04</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44123.64726851852</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30870,10 +30056,8 @@
           <t>3616092092</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:31:36</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44123.64694444444</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30945,10 +30129,8 @@
           <t>3616082732</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:30:28</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44123.64615740741</v>
       </c>
       <c r="I418" t="n">
         <v>4</v>
@@ -31012,10 +30194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:29:50</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44123.64571759259</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -31083,10 +30263,8 @@
           <t>3616086449</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:28:49</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44123.64501157407</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31155,10 +30333,8 @@
           <t>3616054328</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:28:17</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44123.6446412037</v>
       </c>
       <c r="I421" t="n">
         <v>4</v>
@@ -31234,10 +30410,8 @@
           <t>3616085700</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:27:44</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44123.64425925926</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31301,10 +30475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:26:54</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44123.64368055556</v>
       </c>
       <c r="I423" t="n">
         <v>12</v>
@@ -31376,10 +30548,8 @@
           <t>3616078540</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:26:10</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44123.64317129629</v>
       </c>
       <c r="I424" t="n">
         <v>26</v>
@@ -31455,10 +30625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:25:47</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44123.64290509259</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31535,10 +30703,8 @@
           <t>3616078295</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:25:46</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44123.64289351852</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31614,10 +30780,8 @@
           <t>3616069114</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:25:16</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44123.64254629629</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31692,10 +30856,8 @@
           <t>3616071764</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:21:58</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44123.64025462963</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31771,10 +30933,8 @@
           <t>3616066786</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:21:56</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44123.64023148148</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31846,10 +31006,8 @@
           <t>3616071391</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:21:25</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44123.63987268518</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31926,10 +31084,8 @@
           <t>3616024336</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:20:00</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44123.63888888889</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -32005,10 +31161,8 @@
           <t>3615978955</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:19:34</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44123.63858796296</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32080,10 +31234,8 @@
           <t>3616063859</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:18:57</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44123.63815972222</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32155,10 +31307,8 @@
           <t>3616063721</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:18:43</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44123.63799768518</v>
       </c>
       <c r="I434" t="n">
         <v>6</v>
@@ -32234,10 +31384,8 @@
           <t>3616054328</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:18:21</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44123.63774305556</v>
       </c>
       <c r="I435" t="n">
         <v>53</v>
@@ -32301,10 +31449,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:18:17</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44123.63769675926</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32380,10 +31526,8 @@
           <t>3616016384</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:17:16</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44123.63699074074</v>
       </c>
       <c r="I437" t="n">
         <v>7</v>
@@ -32455,10 +31599,8 @@
           <t>3616062472</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:16:48</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44123.63666666667</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32526,10 +31668,8 @@
           <t>3616058037</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:16:40</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44123.63657407407</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32593,10 +31733,8 @@
           <t>3616062255</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:16:27</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44123.63642361111</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32672,10 +31810,8 @@
           <t>3616061405</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:15:04</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44123.63546296296</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32743,10 +31879,8 @@
           <t>3615931742</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:14:24</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44123.635</v>
       </c>
       <c r="I442" t="n">
         <v>4</v>
@@ -32822,10 +31956,8 @@
           <t>3616060930</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:14:20</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44123.6349537037</v>
       </c>
       <c r="I443" t="n">
         <v>2</v>
@@ -32893,10 +32025,8 @@
           <t>3616011006</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:14:15</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44123.63489583333</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32968,10 +32098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:13:49</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44123.63459490741</v>
       </c>
       <c r="I445" t="n">
         <v>42</v>
@@ -33035,10 +32163,8 @@
           <t>3616060598</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:13:48</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44123.63458333333</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33102,10 +32228,8 @@
           <t>3616009753</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:13:43</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44123.63452546296</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33181,10 +32305,8 @@
           <t>3616060395</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:13:27</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44123.63434027778</v>
       </c>
       <c r="I448" t="n">
         <v>3</v>
@@ -33252,10 +32374,8 @@
           <t>3616050999</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:13:25</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44123.63431712963</v>
       </c>
       <c r="I449" t="n">
         <v>6</v>
@@ -33331,10 +32451,8 @@
           <t>3616055599</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:13:07</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44123.63410879629</v>
       </c>
       <c r="I450" t="n">
         <v>9</v>
@@ -33402,10 +32520,8 @@
           <t>3616009753</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:12:14</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44123.63349537037</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33481,10 +32597,8 @@
           <t>3616012301</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:11:39</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44123.63309027778</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33552,10 +32666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:11:35</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44123.63304398148</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33631,10 +32743,8 @@
           <t>3616044558</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:11:34</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44123.63303240741</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33702,10 +32812,8 @@
           <t>3616048908</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:11:07</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44123.63271990741</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33777,10 +32885,8 @@
           <t>3616048655</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:10:45</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44123.63246527778</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33848,10 +32954,8 @@
           <t>3615908893</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:10:41</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44123.63241898148</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33919,10 +33023,8 @@
           <t>3616048548</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:10:35</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44123.63234953704</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33990,10 +33092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:09:28</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44123.63157407408</v>
       </c>
       <c r="I459" t="n">
         <v>5</v>
@@ -34061,10 +33161,8 @@
           <t>3616047560</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:09:01</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44123.63126157408</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34132,10 +33230,8 @@
           <t>3616011006</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:08:52</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44123.63115740741</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -34199,10 +33295,8 @@
           <t>3616037648</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:08:27</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44123.63086805555</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34270,10 +33364,8 @@
           <t>3616047115</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:08:22</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44123.63081018518</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34349,10 +33441,8 @@
           <t>3616041995</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:07:49</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44123.63042824074</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34429,10 +33519,8 @@
           <t>3615908893</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:07:46</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44123.63039351852</v>
       </c>
       <c r="I465" t="n">
         <v>4</v>
@@ -34508,10 +33596,8 @@
           <t>3616041096</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:06:29</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44123.62950231481</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34575,10 +33661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:06:10</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44123.6292824074</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34654,10 +33738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:05:40</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44123.62893518519</v>
       </c>
       <c r="I468" t="n">
         <v>20</v>
@@ -34734,10 +33816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:05:39</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44123.62892361111</v>
       </c>
       <c r="I469" t="n">
         <v>95</v>
@@ -34805,10 +33885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:05:31</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44123.62883101852</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34872,10 +33950,8 @@
           <t>3615923142</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:05:13</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44123.62862268519</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -34947,10 +34023,8 @@
           <t>3616034543</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:04:22</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44123.62803240741</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35018,10 +34092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:03:50</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44123.62766203703</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35089,10 +34161,8 @@
           <t>3615944008</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:03:46</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44123.62761574074</v>
       </c>
       <c r="I474" t="n">
         <v>3</v>
@@ -35160,10 +34230,8 @@
           <t>3616024336</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:03:39</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44123.62753472223</v>
       </c>
       <c r="I475" t="n">
         <v>2</v>
@@ -35227,10 +34295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:03:37</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44123.62751157407</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35298,10 +34364,8 @@
           <t>3616024273</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:03:34</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44123.62747685185</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35365,10 +34429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:02:49</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44123.62695601852</v>
       </c>
       <c r="I478" t="n">
         <v>17</v>
@@ -35444,10 +34506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:01:52</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44123.62629629629</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35519,10 +34579,8 @@
           <t>3616011006</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:00:19</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44123.62521990741</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35598,10 +34656,8 @@
           <t>3616021872</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-10-19 15:00:00</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44123.625</v>
       </c>
       <c r="I481" t="n">
         <v>10</v>
@@ -35673,10 +34729,8 @@
           <t>3616015642</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:59:52</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44123.62490740741</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35745,10 +34799,8 @@
           <t>3616031270</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:59:18</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44123.62451388889</v>
       </c>
       <c r="I483" t="n">
         <v>3</v>
@@ -35824,10 +34876,8 @@
           <t>3616026214</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:59:18</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44123.62451388889</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35891,10 +34941,8 @@
           <t>3616015642</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:59:02</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44123.62432870371</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35963,10 +35011,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:58:19</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44123.62383101852</v>
       </c>
       <c r="I486" t="n">
         <v>8</v>
@@ -36038,10 +35084,8 @@
           <t>3615929841</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:57:39</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44123.62336805555</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36117,10 +35161,8 @@
           <t>3616020229</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:57:24</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44123.62319444444</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36196,10 +35238,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:57:20</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44123.62314814814</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36263,10 +35303,8 @@
           <t>3616014532</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:56:42</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44123.62270833334</v>
       </c>
       <c r="I490" t="n">
         <v>2</v>
@@ -36338,10 +35376,8 @@
           <t>3616009753</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:56:40</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44123.62268518518</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36425,10 +35461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:56:30</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44123.62256944444</v>
       </c>
       <c r="I492" t="n">
         <v>2</v>
@@ -36496,10 +35530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:55:47</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44123.62207175926</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36563,10 +35595,8 @@
           <t>3616018792</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:55:27</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44123.62184027778</v>
       </c>
       <c r="I494" t="n">
         <v>5</v>
@@ -36638,10 +35668,8 @@
           <t>3615931742</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:54:43</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44123.62133101852</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36713,10 +35741,8 @@
           <t>3616012919</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:54:12</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44123.62097222222</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36792,10 +35818,8 @@
           <t>3616017815</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:53:56</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44123.62078703703</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36863,10 +35887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:53:22</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44123.62039351852</v>
       </c>
       <c r="I498" t="n">
         <v>4</v>
@@ -36934,10 +35956,8 @@
           <t>3616012301</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:53:10</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44123.62025462963</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -37001,10 +36021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:53:05</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44123.62019675926</v>
       </c>
       <c r="I500" t="n">
         <v>2</v>
@@ -37072,10 +36090,8 @@
           <t>3616016755</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:52:27</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44123.61975694444</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37139,10 +36155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:52:19</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44123.61966435185</v>
       </c>
       <c r="I502" t="n">
         <v>97</v>
@@ -37210,10 +36224,8 @@
           <t>3616005163</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:52:19</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44123.61966435185</v>
       </c>
       <c r="I503" t="n">
         <v>12</v>
@@ -37289,10 +36301,8 @@
           <t>3616011416</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:52:17</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44123.6196412037</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37368,10 +36378,8 @@
           <t>3616016384</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:51:56</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44123.61939814815</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37443,10 +36451,8 @@
           <t>3616011416</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:51:48</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44123.61930555556</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37510,10 +36516,8 @@
           <t>3616011006</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:51:12</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44123.61888888889</v>
       </c>
       <c r="I507" t="n">
         <v>20</v>
@@ -37577,10 +36581,8 @@
           <t>3616010847</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:50:59</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44123.61873842592</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37640,10 +36642,8 @@
           <t>3616015642</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:50:46</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44123.61858796296</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37715,10 +36715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:50:44</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44123.61856481482</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37794,10 +36792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:50:20</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44123.61828703704</v>
       </c>
       <c r="I511" t="n">
         <v>2</v>
@@ -37865,10 +36861,8 @@
           <t>3616005188</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:50:00</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44123.61805555555</v>
       </c>
       <c r="I512" t="n">
         <v>5</v>
@@ -37940,10 +36934,8 @@
           <t>3616005163</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:49:58</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44123.61803240741</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38007,10 +36999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:49:50</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44123.61793981482</v>
       </c>
       <c r="I514" t="n">
         <v>72</v>
@@ -38082,10 +37072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:49:14</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44123.61752314815</v>
       </c>
       <c r="I515" t="n">
         <v>21</v>
@@ -38153,10 +37141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:48:33</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44123.61704861111</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -38228,10 +37214,8 @@
           <t>3615923142</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:48:13</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44123.61681712963</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38307,10 +37291,8 @@
           <t>3616003346</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:47:20</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44123.61620370371</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38374,10 +37356,8 @@
           <t>3615958712</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:47:08</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44123.61606481481</v>
       </c>
       <c r="I519" t="n">
         <v>2</v>
@@ -38449,10 +37429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:47:02</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44123.61599537037</v>
       </c>
       <c r="I520" t="n">
         <v>19</v>
@@ -38520,10 +37498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:45:16</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44123.61476851852</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38599,10 +37575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:44:52</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44123.61449074074</v>
       </c>
       <c r="I522" t="n">
         <v>87</v>
@@ -38678,10 +37652,8 @@
           <t>3616001283</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:44:18</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44123.61409722222</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38749,10 +37721,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:43:54</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44123.61381944444</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38824,10 +37794,8 @@
           <t>3615958712</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:43:39</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44123.61364583333</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38895,10 +37863,8 @@
           <t>3616000572</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:43:15</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44123.61336805556</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38966,10 +37932,8 @@
           <t>3615958712</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:43:11</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44123.61332175926</v>
       </c>
       <c r="I527" t="n">
         <v>10</v>
@@ -39041,10 +38005,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:43:05</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44123.61325231481</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39116,10 +38078,8 @@
           <t>3615923142</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:43:04</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44123.61324074074</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -39196,10 +38156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:42:48</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44123.61305555556</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39275,10 +38233,8 @@
           <t>3615989523</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:41:42</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44123.61229166666</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -39346,10 +38302,8 @@
           <t>3615978955</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:41:17</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44123.61200231482</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39421,10 +38375,8 @@
           <t>3615979270</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:40:59</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44123.61179398148</v>
       </c>
       <c r="I533" t="n">
         <v>31</v>
@@ -39500,10 +38452,8 @@
           <t>3615988968</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:40:52</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44123.61171296296</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39575,10 +38525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:40:41</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44123.61158564815</v>
       </c>
       <c r="I535" t="n">
         <v>2</v>
@@ -39642,10 +38590,8 @@
           <t>3615978991</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:40:36</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44123.61152777778</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39713,10 +38659,8 @@
           <t>3615983903</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:40:34</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44123.61150462963</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39792,10 +38736,8 @@
           <t>3615978955</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:40:33</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44123.61149305556</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39867,10 +38809,8 @@
           <t>3615924526</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:40:24</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44123.61138888889</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39947,10 +38887,8 @@
           <t>3615978773</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:40:15</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44123.61128472222</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -40018,10 +38956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:39:54</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44123.61104166666</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -40097,10 +39033,8 @@
           <t>3615978132</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:39:17</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44123.61061342592</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -40176,10 +39110,8 @@
           <t>3615987886</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:39:15</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44123.61059027778</v>
       </c>
       <c r="I543" t="n">
         <v>72</v>
@@ -40256,10 +39188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:38:53</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44123.61033564815</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40335,10 +39265,8 @@
           <t>3615987536</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:38:45</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44123.61024305555</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40410,10 +39338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:38:43</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44123.61021990741</v>
       </c>
       <c r="I546" t="n">
         <v>1</v>
@@ -40481,10 +39407,8 @@
           <t>3615987270</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:38:23</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44123.60998842592</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40560,10 +39484,8 @@
           <t>3615973502</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:38:15</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44123.60989583333</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40627,10 +39549,8 @@
           <t>3615940588</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:37:52</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44123.60962962963</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40706,10 +39626,8 @@
           <t>3615986626</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:37:23</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44123.60929398148</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40781,10 +39699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:37:16</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44123.60921296296</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40852,10 +39768,8 @@
           <t>3615981662</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:37:10</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44123.60914351852</v>
       </c>
       <c r="I552" t="n">
         <v>27</v>
@@ -40927,10 +39841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:36:47</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44123.60887731481</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -41006,10 +39918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:36:41</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44123.60880787037</v>
       </c>
       <c r="I554" t="n">
         <v>2</v>
@@ -41085,10 +39995,8 @@
           <t>3615986117</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:36:39</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44123.60878472222</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41160,10 +40068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:36:12</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44123.60847222222</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -41235,10 +40141,8 @@
           <t>3615985681</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:36:02</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44123.60835648148</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41310,10 +40214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:35:51</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44123.60822916667</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41389,10 +40291,8 @@
           <t>3615985338</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:35:29</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44123.60797453704</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41456,10 +40356,8 @@
           <t>3615975647</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:35:25</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44123.60792824074</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41519,10 +40417,8 @@
           <t>3615980310</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:35:14</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44123.60780092593</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41598,10 +40494,8 @@
           <t>3615975317</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:34:54</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44123.60756944444</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41673,10 +40567,8 @@
           <t>3615969922</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:34:39</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44123.60739583334</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41752,10 +40644,8 @@
           <t>3615975152</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:34:38</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44123.60738425926</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41823,10 +40713,8 @@
           <t>3615964916</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:34:18</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44123.60715277777</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41894,10 +40782,8 @@
           <t>3615974570</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:34:17</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44123.60714120371</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41973,10 +40859,8 @@
           <t>3615964877</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:34:14</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44123.60710648148</v>
       </c>
       <c r="I567" t="n">
         <v>5</v>
@@ -42044,10 +40928,8 @@
           <t>3615969540</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:34:02</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44123.60696759259</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42119,10 +41001,8 @@
           <t>3615969445</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:33:54</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44123.606875</v>
       </c>
       <c r="I569" t="n">
         <v>49</v>
@@ -42190,10 +41070,8 @@
           <t>3615973689</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:32:57</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44123.60621527778</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42261,10 +41139,8 @@
           <t>3615968703</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:32:43</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44123.60605324074</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42336,10 +41212,8 @@
           <t>3615973502</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:32:40</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44123.60601851852</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42403,10 +41277,8 @@
           <t>3615968497</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:32:23</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44123.60582175926</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42482,10 +41354,8 @@
           <t>3615968342</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:32:10</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44123.6056712963</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42557,10 +41427,8 @@
           <t>3615929841</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:32:03</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44123.60559027778</v>
       </c>
       <c r="I575" t="n">
         <v>2</v>
@@ -42630,10 +41498,8 @@
           <t>3615973061</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:32:02</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44123.6055787037</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42709,10 +41575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:32:00</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44123.60555555556</v>
       </c>
       <c r="I577" t="n">
         <v>47</v>
@@ -42784,10 +41648,8 @@
           <t>3615963343</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:31:53</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44123.60547453703</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42851,10 +41713,8 @@
           <t>3615972713</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:31:31</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44123.6052199074</v>
       </c>
       <c r="I579" t="n">
         <v>1</v>
@@ -42914,10 +41774,8 @@
           <t>3615963071</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:31:31</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44123.6052199074</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42989,10 +41847,8 @@
           <t>3615963062</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:31:29</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44123.60519675926</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43068,10 +41924,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:31:26</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44123.60516203703</v>
       </c>
       <c r="I582" t="n">
         <v>7</v>
@@ -43139,10 +41993,8 @@
           <t>3615972548</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:31:16</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44123.6050462963</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -43210,10 +42062,8 @@
           <t>3615944008</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:31:06</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44123.60493055556</v>
       </c>
       <c r="I584" t="n">
         <v>3</v>
@@ -43277,10 +42127,8 @@
           <t>3615967417</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:30:49</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44123.6047337963</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43357,10 +42205,8 @@
           <t>3615962303</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:30:17</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44123.60436342593</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43437,10 +42283,8 @@
           <t>3615966964</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:30:10</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44123.60428240741</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43516,10 +42360,8 @@
           <t>3615966918</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:30:07</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44123.60424768519</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43591,10 +42433,8 @@
           <t>3615971622</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:29:53</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44123.60408564815</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43662,10 +42502,8 @@
           <t>3615966519</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:29:35</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44123.60387731482</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43742,10 +42580,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:29:33</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44123.60385416666</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43817,10 +42653,8 @@
           <t>3615971318</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:29:26</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44123.60377314815</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43888,10 +42722,8 @@
           <t>3615966386</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:29:23</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44123.60373842593</v>
       </c>
       <c r="I593" t="n">
         <v>1</v>
@@ -43967,10 +42799,8 @@
           <t>3615914928</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:29:10</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44123.60358796296</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44047,10 +42877,8 @@
           <t>3615971081</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:29:05</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44123.60353009259</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44114,10 +42942,8 @@
           <t>3615971029</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:29:01</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44123.60348379629</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44200,10 +43026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:29:00</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44123.60347222222</v>
       </c>
       <c r="I597" t="n">
         <v>203</v>
@@ -44279,10 +43103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:28:41</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44123.60325231482</v>
       </c>
       <c r="I598" t="n">
         <v>2</v>
@@ -44357,10 +43179,8 @@
           <t>3615965891</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:28:41</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44123.60325231482</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44437,10 +43257,8 @@
           <t>3615970774</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:28:40</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44123.60324074074</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -44516,10 +43334,8 @@
           <t>3615970670</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:28:31</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44123.60313657407</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44587,10 +43403,8 @@
           <t>3615914928</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:28:30</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44123.603125</v>
       </c>
       <c r="I602" t="n">
         <v>1</v>
@@ -44666,10 +43480,8 @@
           <t>3615970614</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:28:26</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44123.6030787037</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44737,10 +43549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:28:21</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44123.60302083333</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -44804,10 +43614,8 @@
           <t>3615965397</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:28:01</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44123.60278935185</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44884,10 +43692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:27:44</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44123.60259259259</v>
       </c>
       <c r="I606" t="n">
         <v>1</v>
@@ -44951,10 +43757,8 @@
           <t>3615960274</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:27:10</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44123.60219907408</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -45030,10 +43834,8 @@
           <t>3615953586</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:25:29</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44123.60103009259</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -45101,10 +43903,8 @@
           <t>3615958712</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:25:29</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44123.60103009259</v>
       </c>
       <c r="I609" t="n">
         <v>4</v>
@@ -45176,10 +43976,8 @@
           <t>3615953448</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:25:16</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44123.60087962963</v>
       </c>
       <c r="I610" t="n">
         <v>1</v>
@@ -45251,10 +44049,8 @@
           <t>3615958299</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:24:53</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44123.60061342592</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45330,10 +44126,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:24:38</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44123.60043981481</v>
       </c>
       <c r="I612" t="n">
         <v>1</v>
@@ -45409,10 +44203,8 @@
           <t>3615948558</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:24:35</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44123.60040509259</v>
       </c>
       <c r="I613" t="n">
         <v>2</v>
@@ -45476,10 +44268,8 @@
           <t>3615929841</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:22:44</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44123.59912037037</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45548,10 +44338,8 @@
           <t>3615951464</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:22:19</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44123.59883101852</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45627,10 +44415,8 @@
           <t>3615931742</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:22:14</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44123.59877314815</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45699,10 +44485,8 @@
           <t>3615951361</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:22:09</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44123.59871527777</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45778,10 +44562,8 @@
           <t>3615923142</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:21:55</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44123.59855324074</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45857,10 +44639,8 @@
           <t>3615923142</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:21:37</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44123.5983449074</v>
       </c>
       <c r="I619" t="n">
         <v>1</v>
@@ -45936,10 +44716,8 @@
           <t>3615923142</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:21:03</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44123.59795138889</v>
       </c>
       <c r="I620" t="n">
         <v>1</v>
@@ -46015,10 +44793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:20:52</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44123.59782407407</v>
       </c>
       <c r="I621" t="n">
         <v>6</v>
@@ -46086,10 +44862,8 @@
           <t>3615929841</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:20:51</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44123.5978125</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -46157,10 +44931,8 @@
           <t>3615929841</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:20:20</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44123.5974537037</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -46229,10 +45001,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:20:10</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44123.59733796296</v>
       </c>
       <c r="I624" t="n">
         <v>1</v>
@@ -46302,10 +45072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:20:04</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44123.59726851852</v>
       </c>
       <c r="I625" t="n">
         <v>16</v>
@@ -46374,10 +45142,8 @@
           <t>3615929841</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:19:45</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44123.59704861111</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46445,10 +45211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:19:19</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44123.59674768519</v>
       </c>
       <c r="I627" t="n">
         <v>1</v>
@@ -46520,10 +45284,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:19:01</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44123.59653935185</v>
       </c>
       <c r="I628" t="n">
         <v>4</v>
@@ -46592,10 +45354,8 @@
           <t>3615944008</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:18:47</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44123.59637731482</v>
       </c>
       <c r="I629" t="n">
         <v>67</v>
@@ -46667,10 +45427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:18:24</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44123.59611111111</v>
       </c>
       <c r="I630" t="n">
         <v>37</v>
@@ -46746,10 +45504,8 @@
           <t>3615943714</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:18:22</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44123.59608796296</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46817,10 +45573,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:18:20</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44123.59606481482</v>
       </c>
       <c r="I632" t="n">
         <v>4</v>
@@ -46890,10 +45644,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:18:16</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44123.59601851852</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46962,10 +45714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:17:51</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44123.59572916666</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -47033,10 +45783,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:17:37</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44123.59556712963</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -47104,10 +45852,8 @@
           <t>3615943023</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:17:22</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44123.59539351852</v>
       </c>
       <c r="I636" t="n">
         <v>2</v>
@@ -47183,10 +45929,8 @@
           <t>3615923142</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:17:21</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44123.59538194445</v>
       </c>
       <c r="I637" t="n">
         <v>7</v>
@@ -47270,10 +46014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:17:02</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44123.59516203704</v>
       </c>
       <c r="I638" t="n">
         <v>113</v>
@@ -47341,10 +46083,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:16:34</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44123.59483796296</v>
       </c>
       <c r="I639" t="n">
         <v>7</v>
@@ -47412,10 +46152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:16:23</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44123.59471064815</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47487,10 +46225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:16:22</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44123.59469907408</v>
       </c>
       <c r="I641" t="n">
         <v>107</v>
@@ -47567,10 +46303,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:16:15</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44123.59461805555</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47639,10 +46373,8 @@
           <t>3615941994</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:15:54</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44123.594375</v>
       </c>
       <c r="I643" t="n">
         <v>1</v>
@@ -47719,10 +46451,8 @@
           <t>3615929841</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:15:54</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44123.594375</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47799,10 +46529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:15:53</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44123.59436342592</v>
       </c>
       <c r="I645" t="n">
         <v>512</v>
@@ -47870,10 +46598,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:15:41</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44123.59422453704</v>
       </c>
       <c r="I646" t="n">
         <v>1</v>
@@ -47933,10 +46659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:15:38</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44123.59418981482</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -48008,10 +46732,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:15:27</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44123.5940625</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -48081,10 +46803,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:14:41</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44123.59353009259</v>
       </c>
       <c r="I649" t="n">
         <v>1</v>
@@ -48153,10 +46873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:14:19</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44123.59327546296</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -48220,10 +46938,8 @@
           <t>3615931742</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:14:18</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44123.59326388889</v>
       </c>
       <c r="I651" t="n">
         <v>4</v>
@@ -48299,10 +47015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:14:12</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44123.59319444445</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -48378,10 +47092,8 @@
           <t>3615940588</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:13:58</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44123.59303240741</v>
       </c>
       <c r="I653" t="n">
         <v>25</v>
@@ -48457,10 +47169,8 @@
           <t>3615908893</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:13:56</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44123.59300925926</v>
       </c>
       <c r="I654" t="n">
         <v>11</v>
@@ -48524,10 +47234,8 @@
           <t>3615935578</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:13:44</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44123.59287037037</v>
       </c>
       <c r="I655" t="n">
         <v>2</v>
@@ -48599,10 +47307,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:13:12</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44123.5925</v>
       </c>
       <c r="I656" t="n">
         <v>1</v>
@@ -48671,10 +47377,8 @@
           <t>3615929841</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:12:55</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44123.59230324074</v>
       </c>
       <c r="I657" t="n">
         <v>10</v>
@@ -48742,10 +47446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:12:49</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44123.5922337963</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48814,10 +47516,8 @@
           <t>3615924613</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:12:21</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44123.59190972222</v>
       </c>
       <c r="I659" t="n">
         <v>26</v>
@@ -48893,10 +47593,8 @@
           <t>3615924526</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:12:13</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44123.59181712963</v>
       </c>
       <c r="I660" t="n">
         <v>6</v>
@@ -48964,10 +47662,8 @@
           <t>3615924125</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:11:38</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44123.59141203704</v>
       </c>
       <c r="I661" t="n">
         <v>19</v>
@@ -49035,10 +47731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:11:30</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44123.59131944444</v>
       </c>
       <c r="I662" t="n">
         <v>1</v>
@@ -49106,10 +47800,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:11:07</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44123.59105324074</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -49169,10 +47861,8 @@
           <t>3615923672</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:11:02</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44123.59099537037</v>
       </c>
       <c r="I664" t="n">
         <v>9</v>
@@ -49242,10 +47932,8 @@
           <t>3615928367</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:10:52</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44123.59087962963</v>
       </c>
       <c r="I665" t="n">
         <v>28</v>
@@ -49317,10 +48005,8 @@
           <t>3615928145</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:10:35</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44123.59068287037</v>
       </c>
       <c r="I666" t="n">
         <v>8</v>
@@ -49384,10 +48070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:10:00</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44123.59027777778</v>
       </c>
       <c r="I667" t="n">
         <v>20</v>
@@ -49455,10 +48139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:09:58</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44123.59025462963</v>
       </c>
       <c r="I668" t="n">
         <v>6</v>
@@ -49527,10 +48209,8 @@
           <t>3615914928</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:09:49</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44123.59015046297</v>
       </c>
       <c r="I669" t="n">
         <v>2</v>
@@ -49606,10 +48286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:09:10</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44123.58969907407</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49685,10 +48363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:08:33</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44123.58927083333</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49757,10 +48433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:08:27</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44123.58920138889</v>
       </c>
       <c r="I672" t="n">
         <v>2</v>
@@ -49829,10 +48503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:08:19</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44123.5891087963</v>
       </c>
       <c r="I673" t="n">
         <v>318</v>
@@ -49900,10 +48572,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:07:44</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44123.5887037037</v>
       </c>
       <c r="I674" t="n">
         <v>3</v>
@@ -49979,10 +48649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:07:31</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44123.58855324074</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -50058,10 +48726,8 @@
           <t>3615914928</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:07:18</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44123.58840277778</v>
       </c>
       <c r="I676" t="n">
         <v>154</v>
@@ -50133,10 +48799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:07:16</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44123.58837962963</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -50204,10 +48868,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:07:16</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44123.58837962963</v>
       </c>
       <c r="I678" t="n">
         <v>1</v>
@@ -50275,10 +48937,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:07:01</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44123.58820601852</v>
       </c>
       <c r="I679" t="n">
         <v>1</v>
@@ -50350,10 +49010,8 @@
           <t>3615916895</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:06:59</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44123.58818287037</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -50425,10 +49083,8 @@
           <t>3615916814</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:06:49</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44123.58806712963</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -50496,10 +49152,8 @@
           <t>3615920630</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:06:38</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44123.58793981482</v>
       </c>
       <c r="I682" t="n">
         <v>1</v>
@@ -50567,10 +49221,8 @@
           <t>3615916628</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:06:31</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44123.58785879629</v>
       </c>
       <c r="I683" t="n">
         <v>6</v>
@@ -50646,10 +49298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:06:22</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44123.58775462963</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50725,10 +49375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:06:20</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44123.58773148148</v>
       </c>
       <c r="I685" t="n">
         <v>1</v>
@@ -50800,10 +49448,8 @@
           <t>3615920381</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:06:18</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44123.58770833333</v>
       </c>
       <c r="I686" t="n">
         <v>1</v>
@@ -50879,10 +49525,8 @@
           <t>3615914928</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:06:08</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44123.58759259259</v>
       </c>
       <c r="I687" t="n">
         <v>46</v>
@@ -50950,10 +49594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:06:04</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44123.58754629629</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -51029,10 +49671,8 @@
           <t>3615914783</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:05:57</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44123.58746527778</v>
       </c>
       <c r="I689" t="n">
         <v>8</v>
@@ -51096,10 +49736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:05:32</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44123.58717592592</v>
       </c>
       <c r="I690" t="n">
         <v>1</v>
@@ -51171,10 +49809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:05:29</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44123.5871412037</v>
       </c>
       <c r="I691" t="n">
         <v>1</v>
@@ -51250,10 +49886,8 @@
           <t>3615915854</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:05:24</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44123.58708333333</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -51321,10 +49955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:05:18</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44123.58701388889</v>
       </c>
       <c r="I693" t="n">
         <v>2</v>
@@ -51396,10 +50028,8 @@
           <t>3615915550</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:04:56</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44123.58675925926</v>
       </c>
       <c r="I694" t="n">
         <v>1</v>
@@ -51463,10 +50093,8 @@
           <t>3615909387</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:04:50</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44123.58668981482</v>
       </c>
       <c r="I695" t="n">
         <v>2</v>
@@ -51534,10 +50162,8 @@
           <t>3615913911</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:04:41</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44123.58658564815</v>
       </c>
       <c r="I696" t="n">
         <v>7</v>
@@ -51605,10 +50231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:04:37</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44123.58653935185</v>
       </c>
       <c r="I697" t="n">
         <v>1419</v>
@@ -51680,10 +50304,8 @@
           <t>3615908893</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:04:33</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44123.58649305555</v>
       </c>
       <c r="I698" t="n">
         <v>13</v>
@@ -51755,10 +50377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:04:20</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44123.58634259259</v>
       </c>
       <c r="I699" t="n">
         <v>462</v>
@@ -51822,10 +50442,8 @@
           <t>3615908893</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:04:07</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44123.58619212963</v>
       </c>
       <c r="I700" t="n">
         <v>19</v>
@@ -51893,10 +50511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:03:53</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44123.58603009259</v>
       </c>
       <c r="I701" t="n">
         <v>323</v>
@@ -51956,10 +50572,8 @@
           <t>3615912837</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:03:11</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44123.58554398148</v>
       </c>
       <c r="I702" t="n">
         <v>22</v>
@@ -52031,10 +50645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:03:10</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44123.58553240741</v>
       </c>
       <c r="I703" t="n">
         <v>1</v>
@@ -52098,10 +50710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:02:32</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44123.58509259259</v>
       </c>
       <c r="I704" t="n">
         <v>1</v>
@@ -52169,10 +50779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:02:22</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44123.58497685185</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
@@ -52244,10 +50852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:02:18</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44123.58493055555</v>
       </c>
       <c r="I706" t="n">
         <v>41</v>
@@ -52316,10 +50922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:02:10</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44123.58483796296</v>
       </c>
       <c r="I707" t="n">
         <v>10</v>
@@ -52391,10 +50995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:01:55</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44123.58466435185</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
@@ -52462,10 +51064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:01:40</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44123.58449074074</v>
       </c>
       <c r="I709" t="n">
         <v>1</v>
@@ -52541,10 +51141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:01:40</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44123.58449074074</v>
       </c>
       <c r="I710" t="n">
         <v>181</v>
@@ -52622,10 +51220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:01:37</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44123.58445601852</v>
       </c>
       <c r="I711" t="n">
         <v>13</v>
@@ -52693,10 +51289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:01:22</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44123.58428240741</v>
       </c>
       <c r="I712" t="n">
         <v>1243</v>
@@ -52768,10 +51362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:01:22</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44123.58428240741</v>
       </c>
       <c r="I713" t="n">
         <v>153</v>
@@ -52839,10 +51431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:01:13</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44123.58417824074</v>
       </c>
       <c r="I714" t="n">
         <v>49</v>
@@ -52902,10 +51492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:01:08</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44123.58412037037</v>
       </c>
       <c r="I715" t="n">
         <v>2</v>
@@ -52977,10 +51565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:01:04</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44123.58407407408</v>
       </c>
       <c r="I716" t="n">
         <v>2</v>
@@ -53048,10 +51634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:00:57</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44123.58399305555</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
@@ -53119,10 +51703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:00:56</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44123.58398148148</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -53186,10 +51768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:00:48</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44123.58388888889</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -53257,10 +51837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:00:42</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44123.58381944444</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
@@ -53332,10 +51910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:00:38</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44123.58377314815</v>
       </c>
       <c r="I721" t="n">
         <v>1</v>
@@ -53395,10 +51971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:00:38</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44123.58377314815</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
@@ -53462,10 +52036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:00:32</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44123.58370370371</v>
       </c>
       <c r="I723" t="n">
         <v>1</v>
@@ -53537,10 +52109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:00:31</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44123.58369212963</v>
       </c>
       <c r="I724" t="n">
         <v>1</v>
@@ -53608,10 +52178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:00:24</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44123.58361111111</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
@@ -53687,10 +52255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2020-10-19 14:00:18</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44123.58354166667</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
